--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nrg2-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nrg2-Erbb4.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.035417</v>
+        <v>0.05320733333333333</v>
       </c>
       <c r="H2">
-        <v>0.106251</v>
+        <v>0.159622</v>
       </c>
       <c r="I2">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="J2">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0002249097556666666</v>
+        <v>0.0003378843024444444</v>
       </c>
       <c r="R2">
-        <v>0.002024187801</v>
+        <v>0.003040958722</v>
       </c>
       <c r="S2">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="T2">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.287242</v>
       </c>
       <c r="I3">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="J3">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.04357424734199999</v>
       </c>
       <c r="S3">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="T3">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1155623333333333</v>
+        <v>0.162844</v>
       </c>
       <c r="H4">
-        <v>0.346687</v>
+        <v>0.488532</v>
       </c>
       <c r="I4">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="J4">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0007338593374444444</v>
+        <v>0.001034113681333333</v>
       </c>
       <c r="R4">
-        <v>0.006604734037</v>
+        <v>0.009307023131999999</v>
       </c>
       <c r="S4">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="T4">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
     </row>
   </sheetData>
